--- a/problems.xlsx
+++ b/problems.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liwei/Downloads/归档/AlgoCrazy-API/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93F97A94-7339-EE4D-9EB7-5585E0719CA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{254E3C7C-7BBA-344F-829E-0D9E92873ECC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17640" activeTab="1" xr2:uid="{6D4DD90D-EBE0-2640-980B-75CBF7FE342C}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17580" xr2:uid="{6D4DD90D-EBE0-2640-980B-75CBF7FE342C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1203,8 +1203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E4A9443-185F-1E40-8EEF-377CC674FAC8}">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView zoomScale="166" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D4"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1237,8 +1237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4F15BD-A8B3-D64C-B283-64D8DC828046}">
   <dimension ref="A1:D121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A110" workbookViewId="0">
-      <selection activeCell="A120" sqref="A120"/>
+    <sheetView topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82:D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
